--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t>Gpr1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H2">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I2">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J2">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34967369111078</v>
+        <v>1.617852666666667</v>
       </c>
       <c r="N2">
-        <v>1.34967369111078</v>
+        <v>4.853558</v>
       </c>
       <c r="O2">
-        <v>0.3121674562811467</v>
+        <v>0.3287678711838726</v>
       </c>
       <c r="P2">
-        <v>0.3121674562811467</v>
+        <v>0.3287678711838726</v>
       </c>
       <c r="Q2">
-        <v>0.4642697294981223</v>
+        <v>0.594447066029111</v>
       </c>
       <c r="R2">
-        <v>0.4642697294981223</v>
+        <v>5.350023594261999</v>
       </c>
       <c r="S2">
-        <v>0.002083744586954871</v>
+        <v>0.002265977838024516</v>
       </c>
       <c r="T2">
-        <v>0.002083744586954871</v>
+        <v>0.002265977838024516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H3">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I3">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J3">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.11496514313483</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N3">
-        <v>2.11496514313483</v>
+        <v>6.362129</v>
       </c>
       <c r="O3">
-        <v>0.4891725260735638</v>
+        <v>0.4309546949943074</v>
       </c>
       <c r="P3">
-        <v>0.4891725260735638</v>
+        <v>0.4309546949943074</v>
       </c>
       <c r="Q3">
-        <v>0.727519771162651</v>
+        <v>0.7792116459201111</v>
       </c>
       <c r="R3">
-        <v>0.727519771162651</v>
+        <v>7.012904813281</v>
       </c>
       <c r="S3">
-        <v>0.003265268633174912</v>
+        <v>0.002970283515032288</v>
       </c>
       <c r="T3">
-        <v>0.003265268633174912</v>
+        <v>0.002970283515032287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,433 +652,1363 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.343986648443913</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H4">
-        <v>0.343986648443913</v>
+        <v>1.102289</v>
       </c>
       <c r="I4">
-        <v>0.00667508590350364</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J4">
-        <v>0.00667508590350364</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.858917846484192</v>
+        <v>0.09275366666666666</v>
       </c>
       <c r="N4">
-        <v>0.858917846484192</v>
+        <v>0.278261</v>
       </c>
       <c r="O4">
-        <v>0.1986600176452895</v>
+        <v>0.01884870369396957</v>
       </c>
       <c r="P4">
-        <v>0.1986600176452895</v>
+        <v>0.01884870369396957</v>
       </c>
       <c r="Q4">
-        <v>0.2954562713007606</v>
+        <v>0.03408044882544443</v>
       </c>
       <c r="R4">
-        <v>0.2954562713007606</v>
+        <v>0.306724039429</v>
       </c>
       <c r="S4">
-        <v>0.001326072683373857</v>
+        <v>0.000129911553377242</v>
       </c>
       <c r="T4">
-        <v>0.001326072683373857</v>
+        <v>0.000129911553377242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9406491250565</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H5">
-        <v>42.9406491250565</v>
+        <v>1.102289</v>
       </c>
       <c r="I5">
-        <v>0.833266415887348</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J5">
-        <v>0.833266415887348</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.34967369111078</v>
+        <v>0.1190696666666667</v>
       </c>
       <c r="N5">
-        <v>1.34967369111078</v>
+        <v>0.357209</v>
       </c>
       <c r="O5">
-        <v>0.3121674562811467</v>
+        <v>0.02419644361882973</v>
       </c>
       <c r="P5">
-        <v>0.3121674562811467</v>
+        <v>0.02419644361882973</v>
       </c>
       <c r="Q5">
-        <v>57.9558644033079</v>
+        <v>0.04374972793344444</v>
       </c>
       <c r="R5">
-        <v>57.9558644033079</v>
+        <v>0.3937475514009999</v>
       </c>
       <c r="S5">
-        <v>0.2601186574520615</v>
+        <v>0.0001667699608293338</v>
       </c>
       <c r="T5">
-        <v>0.2601186574520615</v>
+        <v>0.0001667699608293337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9406491250565</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H6">
-        <v>42.9406491250565</v>
+        <v>1.102289</v>
       </c>
       <c r="I6">
-        <v>0.833266415887348</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J6">
-        <v>0.833266415887348</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.11496514313483</v>
+        <v>0.1019216666666667</v>
       </c>
       <c r="N6">
-        <v>2.11496514313483</v>
+        <v>0.305765</v>
       </c>
       <c r="O6">
-        <v>0.4891725260735638</v>
+        <v>0.02071175581553508</v>
       </c>
       <c r="P6">
-        <v>0.4891725260735638</v>
+        <v>0.02071175581553508</v>
       </c>
       <c r="Q6">
-        <v>90.81797612307764</v>
+        <v>0.03744904400944444</v>
       </c>
       <c r="R6">
-        <v>90.81797612307764</v>
+        <v>0.3370413960849999</v>
       </c>
       <c r="S6">
-        <v>0.4076110375518787</v>
+        <v>0.000142752330072818</v>
       </c>
       <c r="T6">
-        <v>0.4076110375518787</v>
+        <v>0.0001427523300728179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9406491250565</v>
+        <v>0.3674296666666666</v>
       </c>
       <c r="H7">
-        <v>42.9406491250565</v>
+        <v>1.102289</v>
       </c>
       <c r="I7">
-        <v>0.833266415887348</v>
+        <v>0.00689233357829301</v>
       </c>
       <c r="J7">
-        <v>0.833266415887348</v>
+        <v>0.006892333578293009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.858917846484192</v>
+        <v>0.86865</v>
       </c>
       <c r="N7">
-        <v>0.858917846484192</v>
+        <v>2.60595</v>
       </c>
       <c r="O7">
-        <v>0.1986600176452895</v>
+        <v>0.1765205306934857</v>
       </c>
       <c r="P7">
-        <v>0.1986600176452895</v>
+        <v>0.1765205306934857</v>
       </c>
       <c r="Q7">
-        <v>36.88248987312684</v>
+        <v>0.31916777995</v>
       </c>
       <c r="R7">
-        <v>36.88248987312684</v>
+        <v>2.87251001955</v>
       </c>
       <c r="S7">
-        <v>0.1655367208834077</v>
+        <v>0.001216638380956813</v>
       </c>
       <c r="T7">
-        <v>0.1655367208834077</v>
+        <v>0.001216638380956813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H8">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I8">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J8">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.34967369111078</v>
+        <v>1.617852666666667</v>
       </c>
       <c r="N8">
-        <v>1.34967369111078</v>
+        <v>4.853558</v>
       </c>
       <c r="O8">
-        <v>0.3121674562811467</v>
+        <v>0.3287678711838726</v>
       </c>
       <c r="P8">
-        <v>0.3121674562811467</v>
+        <v>0.3287678711838726</v>
       </c>
       <c r="Q8">
-        <v>11.13248829178854</v>
+        <v>71.5820913111131</v>
       </c>
       <c r="R8">
-        <v>11.13248829178854</v>
+        <v>644.2388218000178</v>
       </c>
       <c r="S8">
-        <v>0.0499650542421303</v>
+        <v>0.2728643840299251</v>
       </c>
       <c r="T8">
-        <v>0.0499650542421303</v>
+        <v>0.272864384029925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H9">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I9">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J9">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.11496514313483</v>
+        <v>2.120709666666667</v>
       </c>
       <c r="N9">
-        <v>2.11496514313483</v>
+        <v>6.362129</v>
       </c>
       <c r="O9">
-        <v>0.4891725260735638</v>
+        <v>0.4309546949943074</v>
       </c>
       <c r="P9">
-        <v>0.4891725260735638</v>
+        <v>0.4309546949943074</v>
       </c>
       <c r="Q9">
-        <v>17.44482747834552</v>
+        <v>93.83106146276212</v>
       </c>
       <c r="R9">
-        <v>17.44482747834552</v>
+        <v>844.479553164859</v>
       </c>
       <c r="S9">
-        <v>0.07829621988851006</v>
+        <v>0.3576754229997713</v>
       </c>
       <c r="T9">
-        <v>0.07829621988851006</v>
+        <v>0.3576754229997711</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.24828131800251</v>
+        <v>44.24512366666666</v>
       </c>
       <c r="H10">
-        <v>8.24828131800251</v>
+        <v>132.735371</v>
       </c>
       <c r="I10">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876691</v>
       </c>
       <c r="J10">
-        <v>0.1600584982091483</v>
+        <v>0.8299606133876688</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.858917846484192</v>
+        <v>0.09275366666666666</v>
       </c>
       <c r="N10">
-        <v>0.858917846484192</v>
+        <v>0.278261</v>
       </c>
       <c r="O10">
-        <v>0.1986600176452895</v>
+        <v>0.01884870369396957</v>
       </c>
       <c r="P10">
-        <v>0.1986600176452895</v>
+        <v>0.01884870369396957</v>
       </c>
       <c r="Q10">
-        <v>7.084596026854509</v>
+        <v>4.103897452203444</v>
       </c>
       <c r="R10">
-        <v>7.084596026854509</v>
+        <v>36.935077069831</v>
       </c>
       <c r="S10">
-        <v>0.03179722407850795</v>
+        <v>0.01564368167940941</v>
       </c>
       <c r="T10">
-        <v>0.03179722407850795</v>
+        <v>0.01564368167940941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>44.24512366666666</v>
+      </c>
+      <c r="H11">
+        <v>132.735371</v>
+      </c>
+      <c r="I11">
+        <v>0.8299606133876691</v>
+      </c>
+      <c r="J11">
+        <v>0.8299606133876688</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1190696666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.357209</v>
+      </c>
+      <c r="O11">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="P11">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="Q11">
+        <v>5.268252126615445</v>
+      </c>
+      <c r="R11">
+        <v>47.41426913953899</v>
+      </c>
+      <c r="S11">
+        <v>0.02008209518768407</v>
+      </c>
+      <c r="T11">
+        <v>0.02008209518768407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>44.24512366666666</v>
+      </c>
+      <c r="H12">
+        <v>132.735371</v>
+      </c>
+      <c r="I12">
+        <v>0.8299606133876691</v>
+      </c>
+      <c r="J12">
+        <v>0.8299606133876688</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1019216666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.305765</v>
+      </c>
+      <c r="O12">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="P12">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="Q12">
+        <v>4.509536745979444</v>
+      </c>
+      <c r="R12">
+        <v>40.585830713815</v>
+      </c>
+      <c r="S12">
+        <v>0.01718994156099712</v>
+      </c>
+      <c r="T12">
+        <v>0.01718994156099711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>44.24512366666666</v>
+      </c>
+      <c r="H13">
+        <v>132.735371</v>
+      </c>
+      <c r="I13">
+        <v>0.8299606133876691</v>
+      </c>
+      <c r="J13">
+        <v>0.8299606133876688</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.86865</v>
+      </c>
+      <c r="N13">
+        <v>2.60595</v>
+      </c>
+      <c r="O13">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="P13">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="Q13">
+        <v>38.43352667305</v>
+      </c>
+      <c r="R13">
+        <v>345.90174005745</v>
+      </c>
+      <c r="S13">
+        <v>0.1465050879298822</v>
+      </c>
+      <c r="T13">
+        <v>0.1465050879298822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.150786</v>
+      </c>
+      <c r="I14">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J14">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.617852666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.853558</v>
+      </c>
+      <c r="O14">
+        <v>0.3287678711838726</v>
+      </c>
+      <c r="P14">
+        <v>0.3287678711838726</v>
+      </c>
+      <c r="Q14">
+        <v>0.6206007329542222</v>
+      </c>
+      <c r="R14">
+        <v>5.585406596588</v>
+      </c>
+      <c r="S14">
+        <v>0.002365673223908505</v>
+      </c>
+      <c r="T14">
+        <v>0.002365673223908504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.150786</v>
+      </c>
+      <c r="I15">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J15">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.120709666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.362129</v>
+      </c>
+      <c r="O15">
+        <v>0.4309546949943074</v>
+      </c>
+      <c r="P15">
+        <v>0.4309546949943074</v>
+      </c>
+      <c r="Q15">
+        <v>0.8134943314882224</v>
+      </c>
+      <c r="R15">
+        <v>7.321448983394001</v>
+      </c>
+      <c r="S15">
+        <v>0.003100965976372755</v>
+      </c>
+      <c r="T15">
+        <v>0.003100965976372754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.150786</v>
+      </c>
+      <c r="I16">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J16">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09275366666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.278261</v>
+      </c>
+      <c r="O16">
+        <v>0.01884870369396957</v>
+      </c>
+      <c r="P16">
+        <v>0.01884870369396957</v>
+      </c>
+      <c r="Q16">
+        <v>0.03557987368288889</v>
+      </c>
+      <c r="R16">
+        <v>0.320218863146</v>
+      </c>
+      <c r="S16">
+        <v>0.0001356272237723345</v>
+      </c>
+      <c r="T16">
+        <v>0.0001356272237723345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.150786</v>
+      </c>
+      <c r="I17">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J17">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1190696666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.357209</v>
+      </c>
+      <c r="O17">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="P17">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="Q17">
+        <v>0.04567456847488889</v>
+      </c>
+      <c r="R17">
+        <v>0.411071116274</v>
+      </c>
+      <c r="S17">
+        <v>0.0001741072768964815</v>
+      </c>
+      <c r="T17">
+        <v>0.0001741072768964815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.150786</v>
+      </c>
+      <c r="I18">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J18">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1019216666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.305765</v>
+      </c>
+      <c r="O18">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="P18">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="Q18">
+        <v>0.0390966756988889</v>
+      </c>
+      <c r="R18">
+        <v>0.35187008129</v>
+      </c>
+      <c r="S18">
+        <v>0.0001490329513541167</v>
+      </c>
+      <c r="T18">
+        <v>0.0001490329513541167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.150786</v>
+      </c>
+      <c r="I19">
+        <v>0.007195573020532276</v>
+      </c>
+      <c r="J19">
+        <v>0.007195573020532274</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.86865</v>
+      </c>
+      <c r="N19">
+        <v>2.60595</v>
+      </c>
+      <c r="O19">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="P19">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="Q19">
+        <v>0.3332100863</v>
+      </c>
+      <c r="R19">
+        <v>2.9988907767</v>
+      </c>
+      <c r="S19">
+        <v>0.001270166368228085</v>
+      </c>
+      <c r="T19">
+        <v>0.001270166368228085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H20">
+        <v>24.941277</v>
+      </c>
+      <c r="I20">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J20">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.617852666666667</v>
+      </c>
+      <c r="N20">
+        <v>4.853558</v>
+      </c>
+      <c r="O20">
+        <v>0.3287678711838726</v>
+      </c>
+      <c r="P20">
+        <v>0.3287678711838726</v>
+      </c>
+      <c r="Q20">
+        <v>13.450437168174</v>
+      </c>
+      <c r="R20">
+        <v>121.053934513566</v>
+      </c>
+      <c r="S20">
+        <v>0.05127183609201452</v>
+      </c>
+      <c r="T20">
+        <v>0.05127183609201451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H21">
+        <v>24.941277</v>
+      </c>
+      <c r="I21">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J21">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.120709666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.362129</v>
+      </c>
+      <c r="O21">
+        <v>0.4309546949943074</v>
+      </c>
+      <c r="P21">
+        <v>0.4309546949943074</v>
+      </c>
+      <c r="Q21">
+        <v>17.631069077637</v>
+      </c>
+      <c r="R21">
+        <v>158.679621698733</v>
+      </c>
+      <c r="S21">
+        <v>0.06720802250313117</v>
+      </c>
+      <c r="T21">
+        <v>0.06720802250313115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H22">
+        <v>24.941277</v>
+      </c>
+      <c r="I22">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J22">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.09275366666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.278261</v>
+      </c>
+      <c r="O22">
+        <v>0.01884870369396957</v>
+      </c>
+      <c r="P22">
+        <v>0.01884870369396957</v>
+      </c>
+      <c r="Q22">
+        <v>0.7711316310329999</v>
+      </c>
+      <c r="R22">
+        <v>6.940184679296999</v>
+      </c>
+      <c r="S22">
+        <v>0.002939483237410587</v>
+      </c>
+      <c r="T22">
+        <v>0.002939483237410586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H23">
+        <v>24.941277</v>
+      </c>
+      <c r="I23">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J23">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1190696666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.357209</v>
+      </c>
+      <c r="O23">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="P23">
+        <v>0.02419644361882973</v>
+      </c>
+      <c r="Q23">
+        <v>0.989916512877</v>
+      </c>
+      <c r="R23">
+        <v>8.909248615893</v>
+      </c>
+      <c r="S23">
+        <v>0.003773471193419841</v>
+      </c>
+      <c r="T23">
+        <v>0.003773471193419841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H24">
+        <v>24.941277</v>
+      </c>
+      <c r="I24">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J24">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1019216666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.305765</v>
+      </c>
+      <c r="O24">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="P24">
+        <v>0.02071175581553508</v>
+      </c>
+      <c r="Q24">
+        <v>0.847352173545</v>
+      </c>
+      <c r="R24">
+        <v>7.626169561905</v>
+      </c>
+      <c r="S24">
+        <v>0.003230028973111029</v>
+      </c>
+      <c r="T24">
+        <v>0.003230028973111029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.313758999999999</v>
+      </c>
+      <c r="H25">
+        <v>24.941277</v>
+      </c>
+      <c r="I25">
+        <v>0.1559514800135057</v>
+      </c>
+      <c r="J25">
+        <v>0.1559514800135056</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.86865</v>
+      </c>
+      <c r="N25">
+        <v>2.60595</v>
+      </c>
+      <c r="O25">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="P25">
+        <v>0.1765205306934857</v>
+      </c>
+      <c r="Q25">
+        <v>7.22174675535</v>
+      </c>
+      <c r="R25">
+        <v>64.99572079815</v>
+      </c>
+      <c r="S25">
+        <v>0.02752863801441854</v>
+      </c>
+      <c r="T25">
+        <v>0.02752863801441854</v>
       </c>
     </row>
   </sheetData>
